--- a/Excel/arena.竞技场.xlsx
+++ b/Excel/arena.竞技场.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\公用挂机\doc\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864E9819-CB92-4CB1-B325-2465CD8B9419}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0E8013-0DD7-48A4-AE84-4085324BF9BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="3855" windowHeight="7020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="3855" windowHeight="7020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="竞技场刷新区间" sheetId="41" r:id="rId2"/>
     <sheet name="竞技场排名奖励" sheetId="44" r:id="rId3"/>
+    <sheet name="机器人表" sheetId="45" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="104">
   <si>
     <t>sheet名</t>
   </si>
@@ -209,6 +210,235 @@
   </si>
   <si>
     <t>arenaRewards.json</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].atk</t>
+  </si>
+  <si>
+    <t>attr[1].hp</t>
+  </si>
+  <si>
+    <t>attr[1].def</t>
+  </si>
+  <si>
+    <t>attr[1].shield</t>
+  </si>
+  <si>
+    <t>attr[1].shieldRg</t>
+  </si>
+  <si>
+    <t>attr[1].dmgInc</t>
+  </si>
+  <si>
+    <t>attr[1].dmgDec</t>
+  </si>
+  <si>
+    <t>attr[1].gready</t>
+  </si>
+  <si>
+    <t>attr[1].lucky</t>
+  </si>
+  <si>
+    <t>attr[1].crit</t>
+  </si>
+  <si>
+    <t>attr[1].deCrit</t>
+  </si>
+  <si>
+    <t>attr[1].block</t>
+  </si>
+  <si>
+    <t>attr[1].dash</t>
+  </si>
+  <si>
+    <t>attr[1].atkSpeed</t>
+  </si>
+  <si>
+    <t>attr[1].critHit</t>
+  </si>
+  <si>
+    <t>attr[2].atk</t>
+  </si>
+  <si>
+    <t>attr[2].crit</t>
+  </si>
+  <si>
+    <t>attr[2].atkSpeed</t>
+  </si>
+  <si>
+    <t>attr[3].atk</t>
+  </si>
+  <si>
+    <t>attr[3].crit</t>
+  </si>
+  <si>
+    <t>attr[3].atkSpeed</t>
+  </si>
+  <si>
+    <t>active1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>active2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt:&lt;&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ool:&lt;&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名段Min</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名段Max</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>僚炮1激活</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>僚炮2激活</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾回复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>增伤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>减伤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗暴</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴伤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>僚炮1攻击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>僚炮1暴击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>僚炮1攻速</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>僚炮2攻击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>僚炮2暴击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>僚炮2攻速</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nil]</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -713,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -856,12 +1086,13 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="A1:F1048576"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="5" width="10" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -923,7 +1154,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -980,7 +1211,7 @@
         <v>200</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1000,7 +1231,7 @@
         <v>500</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1020,7 +1251,7 @@
         <v>1000</v>
       </c>
       <c r="F8">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1040,7 +1271,7 @@
         <v>3000</v>
       </c>
       <c r="F9">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1060,7 +1291,7 @@
         <v>5000</v>
       </c>
       <c r="F10">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -2182,4 +2413,8628 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5959A67B-4CA0-4166-B229-9066D09FC1B9}">
+  <dimension ref="A1:Z116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="27" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>35125</v>
+      </c>
+      <c r="E4">
+        <v>261216</v>
+      </c>
+      <c r="F4">
+        <v>17310</v>
+      </c>
+      <c r="G4">
+        <v>397015</v>
+      </c>
+      <c r="H4">
+        <v>8161</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>2950</v>
+      </c>
+      <c r="N4">
+        <v>2600</v>
+      </c>
+      <c r="O4">
+        <v>2800</v>
+      </c>
+      <c r="P4">
+        <v>2600</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>34923</v>
+      </c>
+      <c r="T4">
+        <v>3250</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>35339</v>
+      </c>
+      <c r="W4">
+        <v>3250</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>33897</v>
+      </c>
+      <c r="E5">
+        <v>249679</v>
+      </c>
+      <c r="F5">
+        <v>16422</v>
+      </c>
+      <c r="G5">
+        <v>383057</v>
+      </c>
+      <c r="H5">
+        <v>7618</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>2805</v>
+      </c>
+      <c r="N5">
+        <v>2345</v>
+      </c>
+      <c r="O5">
+        <v>2630</v>
+      </c>
+      <c r="P5">
+        <v>2370</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>33813</v>
+      </c>
+      <c r="T5">
+        <v>3105</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>33696</v>
+      </c>
+      <c r="W5">
+        <v>3105</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>32669</v>
+      </c>
+      <c r="E6">
+        <v>238142</v>
+      </c>
+      <c r="F6">
+        <v>15535</v>
+      </c>
+      <c r="G6">
+        <v>369099</v>
+      </c>
+      <c r="H6">
+        <v>7076</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>2660</v>
+      </c>
+      <c r="N6">
+        <v>2090</v>
+      </c>
+      <c r="O6">
+        <v>2460</v>
+      </c>
+      <c r="P6">
+        <v>2140</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>32703</v>
+      </c>
+      <c r="T6">
+        <v>2960</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>32053</v>
+      </c>
+      <c r="W6">
+        <v>2960</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>31441</v>
+      </c>
+      <c r="E7">
+        <v>226604</v>
+      </c>
+      <c r="F7">
+        <v>14647</v>
+      </c>
+      <c r="G7">
+        <v>355142</v>
+      </c>
+      <c r="H7">
+        <v>6533</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>2515</v>
+      </c>
+      <c r="N7">
+        <v>1835</v>
+      </c>
+      <c r="O7">
+        <v>2290</v>
+      </c>
+      <c r="P7">
+        <v>1910</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>31594</v>
+      </c>
+      <c r="T7">
+        <v>2815</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>30410</v>
+      </c>
+      <c r="W7">
+        <v>2815</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>30213</v>
+      </c>
+      <c r="E8">
+        <v>215067</v>
+      </c>
+      <c r="F8">
+        <v>13760</v>
+      </c>
+      <c r="G8">
+        <v>341184</v>
+      </c>
+      <c r="H8">
+        <v>5991</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <v>2370</v>
+      </c>
+      <c r="N8">
+        <v>1580</v>
+      </c>
+      <c r="O8">
+        <v>2120</v>
+      </c>
+      <c r="P8">
+        <v>1680</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>30484</v>
+      </c>
+      <c r="T8">
+        <v>2670</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>28767</v>
+      </c>
+      <c r="W8">
+        <v>2670</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>28985</v>
+      </c>
+      <c r="E9">
+        <v>203530</v>
+      </c>
+      <c r="F9">
+        <v>12872</v>
+      </c>
+      <c r="G9">
+        <v>327226</v>
+      </c>
+      <c r="H9">
+        <v>5448</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>2225</v>
+      </c>
+      <c r="N9">
+        <v>1325</v>
+      </c>
+      <c r="O9">
+        <v>1950</v>
+      </c>
+      <c r="P9">
+        <v>1450</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>29374</v>
+      </c>
+      <c r="T9">
+        <v>2525</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>27124</v>
+      </c>
+      <c r="W9">
+        <v>2525</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>28051</v>
+      </c>
+      <c r="E10">
+        <v>198187</v>
+      </c>
+      <c r="F10">
+        <v>12618</v>
+      </c>
+      <c r="G10">
+        <v>311335</v>
+      </c>
+      <c r="H10">
+        <v>5240</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>2125</v>
+      </c>
+      <c r="N10">
+        <v>1325</v>
+      </c>
+      <c r="O10">
+        <v>1850</v>
+      </c>
+      <c r="P10">
+        <v>1450</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>27939</v>
+      </c>
+      <c r="T10">
+        <v>2425</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>26219</v>
+      </c>
+      <c r="W10">
+        <v>2425</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>27118</v>
+      </c>
+      <c r="E11">
+        <v>192844</v>
+      </c>
+      <c r="F11">
+        <v>12364</v>
+      </c>
+      <c r="G11">
+        <v>295444</v>
+      </c>
+      <c r="H11">
+        <v>5032</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>2025</v>
+      </c>
+      <c r="N11">
+        <v>1325</v>
+      </c>
+      <c r="O11">
+        <v>1750</v>
+      </c>
+      <c r="P11">
+        <v>1450</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>26503</v>
+      </c>
+      <c r="T11">
+        <v>2325</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>25313</v>
+      </c>
+      <c r="W11">
+        <v>2325</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>26184</v>
+      </c>
+      <c r="E12">
+        <v>187501</v>
+      </c>
+      <c r="F12">
+        <v>12110</v>
+      </c>
+      <c r="G12">
+        <v>279553</v>
+      </c>
+      <c r="H12">
+        <v>4824</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>1925</v>
+      </c>
+      <c r="N12">
+        <v>1325</v>
+      </c>
+      <c r="O12">
+        <v>1650</v>
+      </c>
+      <c r="P12">
+        <v>1450</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>25068</v>
+      </c>
+      <c r="T12">
+        <v>2225</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>24408</v>
+      </c>
+      <c r="W12">
+        <v>2225</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>25251</v>
+      </c>
+      <c r="E13">
+        <v>182158</v>
+      </c>
+      <c r="F13">
+        <v>11856</v>
+      </c>
+      <c r="G13">
+        <v>263662</v>
+      </c>
+      <c r="H13">
+        <v>4616</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <v>1825</v>
+      </c>
+      <c r="N13">
+        <v>1325</v>
+      </c>
+      <c r="O13">
+        <v>1550</v>
+      </c>
+      <c r="P13">
+        <v>1450</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>23632</v>
+      </c>
+      <c r="T13">
+        <v>2125</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>23502</v>
+      </c>
+      <c r="W13">
+        <v>2125</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>24208</v>
+      </c>
+      <c r="E14">
+        <v>175843</v>
+      </c>
+      <c r="F14">
+        <v>11535</v>
+      </c>
+      <c r="G14">
+        <v>247059</v>
+      </c>
+      <c r="H14">
+        <v>4388</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <v>1717</v>
+      </c>
+      <c r="N14">
+        <v>1315</v>
+      </c>
+      <c r="O14">
+        <v>1443</v>
+      </c>
+      <c r="P14">
+        <v>1439</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>22125</v>
+      </c>
+      <c r="T14">
+        <v>2017</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>22525</v>
+      </c>
+      <c r="W14">
+        <v>2017</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>23806</v>
+      </c>
+      <c r="E15">
+        <v>172279</v>
+      </c>
+      <c r="F15">
+        <v>11290</v>
+      </c>
+      <c r="G15">
+        <v>244447</v>
+      </c>
+      <c r="H15">
+        <v>4315</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>1688</v>
+      </c>
+      <c r="N15">
+        <v>1278</v>
+      </c>
+      <c r="O15">
+        <v>1419</v>
+      </c>
+      <c r="P15">
+        <v>1398</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>21861</v>
+      </c>
+      <c r="T15">
+        <v>1988</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>22261</v>
+      </c>
+      <c r="W15">
+        <v>1988</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>23405</v>
+      </c>
+      <c r="E16">
+        <v>168715</v>
+      </c>
+      <c r="F16">
+        <v>11045</v>
+      </c>
+      <c r="G16">
+        <v>241835</v>
+      </c>
+      <c r="H16">
+        <v>4242</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>8</v>
+      </c>
+      <c r="M16">
+        <v>1659</v>
+      </c>
+      <c r="N16">
+        <v>1241</v>
+      </c>
+      <c r="O16">
+        <v>1394</v>
+      </c>
+      <c r="P16">
+        <v>1356</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>21597</v>
+      </c>
+      <c r="T16">
+        <v>1959</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>21997</v>
+      </c>
+      <c r="W16">
+        <v>1959</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>23004</v>
+      </c>
+      <c r="E17">
+        <v>165151</v>
+      </c>
+      <c r="F17">
+        <v>10800</v>
+      </c>
+      <c r="G17">
+        <v>239223</v>
+      </c>
+      <c r="H17">
+        <v>4168</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>1631</v>
+      </c>
+      <c r="N17">
+        <v>1204</v>
+      </c>
+      <c r="O17">
+        <v>1369</v>
+      </c>
+      <c r="P17">
+        <v>1315</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>21333</v>
+      </c>
+      <c r="T17">
+        <v>1931</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>21733</v>
+      </c>
+      <c r="W17">
+        <v>1931</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>22603</v>
+      </c>
+      <c r="E18">
+        <v>161587</v>
+      </c>
+      <c r="F18">
+        <v>10555</v>
+      </c>
+      <c r="G18">
+        <v>236611</v>
+      </c>
+      <c r="H18">
+        <v>4095</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18">
+        <v>1602</v>
+      </c>
+      <c r="N18">
+        <v>1166</v>
+      </c>
+      <c r="O18">
+        <v>1344</v>
+      </c>
+      <c r="P18">
+        <v>1274</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>21069</v>
+      </c>
+      <c r="T18">
+        <v>1902</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>21469</v>
+      </c>
+      <c r="W18">
+        <v>1902</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>22202</v>
+      </c>
+      <c r="E19">
+        <v>158023</v>
+      </c>
+      <c r="F19">
+        <v>10310</v>
+      </c>
+      <c r="G19">
+        <v>233999</v>
+      </c>
+      <c r="H19">
+        <v>4022</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>1573</v>
+      </c>
+      <c r="N19">
+        <v>1129</v>
+      </c>
+      <c r="O19">
+        <v>1320</v>
+      </c>
+      <c r="P19">
+        <v>1233</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>20805</v>
+      </c>
+      <c r="T19">
+        <v>1873</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>21205</v>
+      </c>
+      <c r="W19">
+        <v>1873</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>21801</v>
+      </c>
+      <c r="E20">
+        <v>154459</v>
+      </c>
+      <c r="F20">
+        <v>10065</v>
+      </c>
+      <c r="G20">
+        <v>231387</v>
+      </c>
+      <c r="H20">
+        <v>3949</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>1544</v>
+      </c>
+      <c r="N20">
+        <v>1092</v>
+      </c>
+      <c r="O20">
+        <v>1295</v>
+      </c>
+      <c r="P20">
+        <v>1191</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>20541</v>
+      </c>
+      <c r="T20">
+        <v>1844</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>20941</v>
+      </c>
+      <c r="W20">
+        <v>1844</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>21400</v>
+      </c>
+      <c r="E21">
+        <v>150895</v>
+      </c>
+      <c r="F21">
+        <v>9820</v>
+      </c>
+      <c r="G21">
+        <v>228775</v>
+      </c>
+      <c r="H21">
+        <v>3876</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>1515</v>
+      </c>
+      <c r="N21">
+        <v>1055</v>
+      </c>
+      <c r="O21">
+        <v>1270</v>
+      </c>
+      <c r="P21">
+        <v>1150</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>20277</v>
+      </c>
+      <c r="T21">
+        <v>1815</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>20677</v>
+      </c>
+      <c r="W21">
+        <v>1815</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>20999</v>
+      </c>
+      <c r="E22">
+        <v>147331</v>
+      </c>
+      <c r="F22">
+        <v>9575</v>
+      </c>
+      <c r="G22">
+        <v>226163</v>
+      </c>
+      <c r="H22">
+        <v>3802</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <v>1486</v>
+      </c>
+      <c r="N22">
+        <v>1018</v>
+      </c>
+      <c r="O22">
+        <v>1245</v>
+      </c>
+      <c r="P22">
+        <v>1109</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>20013</v>
+      </c>
+      <c r="T22">
+        <v>1786</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>20413</v>
+      </c>
+      <c r="W22">
+        <v>1786</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>65</v>
+      </c>
+      <c r="D23">
+        <v>20598</v>
+      </c>
+      <c r="E23">
+        <v>143766</v>
+      </c>
+      <c r="F23">
+        <v>9330</v>
+      </c>
+      <c r="G23">
+        <v>223551</v>
+      </c>
+      <c r="H23">
+        <v>3729</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>1457</v>
+      </c>
+      <c r="N23">
+        <v>981</v>
+      </c>
+      <c r="O23">
+        <v>1221</v>
+      </c>
+      <c r="P23">
+        <v>1068</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>19750</v>
+      </c>
+      <c r="T23">
+        <v>1757</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>20150</v>
+      </c>
+      <c r="W23">
+        <v>1757</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>65</v>
+      </c>
+      <c r="B24">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>70</v>
+      </c>
+      <c r="D24">
+        <v>20196</v>
+      </c>
+      <c r="E24">
+        <v>140202</v>
+      </c>
+      <c r="F24">
+        <v>9085</v>
+      </c>
+      <c r="G24">
+        <v>220939</v>
+      </c>
+      <c r="H24">
+        <v>3656</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <v>1428</v>
+      </c>
+      <c r="N24">
+        <v>944</v>
+      </c>
+      <c r="O24">
+        <v>1196</v>
+      </c>
+      <c r="P24">
+        <v>1026</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>19486</v>
+      </c>
+      <c r="T24">
+        <v>1728</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>19886</v>
+      </c>
+      <c r="W24">
+        <v>1728</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>70</v>
+      </c>
+      <c r="B25">
+        <v>70</v>
+      </c>
+      <c r="C25">
+        <v>75</v>
+      </c>
+      <c r="D25">
+        <v>19795</v>
+      </c>
+      <c r="E25">
+        <v>136638</v>
+      </c>
+      <c r="F25">
+        <v>8841</v>
+      </c>
+      <c r="G25">
+        <v>218327</v>
+      </c>
+      <c r="H25">
+        <v>3583</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>1400</v>
+      </c>
+      <c r="N25">
+        <v>907</v>
+      </c>
+      <c r="O25">
+        <v>1171</v>
+      </c>
+      <c r="P25">
+        <v>985</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>19222</v>
+      </c>
+      <c r="T25">
+        <v>1700</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>19622</v>
+      </c>
+      <c r="W25">
+        <v>1700</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>75</v>
+      </c>
+      <c r="B26">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>19394</v>
+      </c>
+      <c r="E26">
+        <v>133074</v>
+      </c>
+      <c r="F26">
+        <v>8596</v>
+      </c>
+      <c r="G26">
+        <v>215715</v>
+      </c>
+      <c r="H26">
+        <v>3510</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>1371</v>
+      </c>
+      <c r="N26">
+        <v>869</v>
+      </c>
+      <c r="O26">
+        <v>1146</v>
+      </c>
+      <c r="P26">
+        <v>944</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>18958</v>
+      </c>
+      <c r="T26">
+        <v>1671</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>19358</v>
+      </c>
+      <c r="W26">
+        <v>1671</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>85</v>
+      </c>
+      <c r="D27">
+        <v>18993</v>
+      </c>
+      <c r="E27">
+        <v>129510</v>
+      </c>
+      <c r="F27">
+        <v>8351</v>
+      </c>
+      <c r="G27">
+        <v>213103</v>
+      </c>
+      <c r="H27">
+        <v>3436</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>1342</v>
+      </c>
+      <c r="N27">
+        <v>832</v>
+      </c>
+      <c r="O27">
+        <v>1122</v>
+      </c>
+      <c r="P27">
+        <v>903</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>18694</v>
+      </c>
+      <c r="T27">
+        <v>1642</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>19094</v>
+      </c>
+      <c r="W27">
+        <v>1642</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>85</v>
+      </c>
+      <c r="B28">
+        <v>85</v>
+      </c>
+      <c r="C28">
+        <v>90</v>
+      </c>
+      <c r="D28">
+        <v>18592</v>
+      </c>
+      <c r="E28">
+        <v>125946</v>
+      </c>
+      <c r="F28">
+        <v>8106</v>
+      </c>
+      <c r="G28">
+        <v>210491</v>
+      </c>
+      <c r="H28">
+        <v>3363</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>6</v>
+      </c>
+      <c r="M28">
+        <v>1313</v>
+      </c>
+      <c r="N28">
+        <v>795</v>
+      </c>
+      <c r="O28">
+        <v>1097</v>
+      </c>
+      <c r="P28">
+        <v>861</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>18430</v>
+      </c>
+      <c r="T28">
+        <v>1613</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>18830</v>
+      </c>
+      <c r="W28">
+        <v>1613</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29">
+        <v>90</v>
+      </c>
+      <c r="C29">
+        <v>95</v>
+      </c>
+      <c r="D29">
+        <v>18191</v>
+      </c>
+      <c r="E29">
+        <v>122382</v>
+      </c>
+      <c r="F29">
+        <v>7861</v>
+      </c>
+      <c r="G29">
+        <v>207879</v>
+      </c>
+      <c r="H29">
+        <v>3290</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>1284</v>
+      </c>
+      <c r="N29">
+        <v>758</v>
+      </c>
+      <c r="O29">
+        <v>1072</v>
+      </c>
+      <c r="P29">
+        <v>820</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>18166</v>
+      </c>
+      <c r="T29">
+        <v>1584</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>18566</v>
+      </c>
+      <c r="W29">
+        <v>1584</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>95</v>
+      </c>
+      <c r="B30">
+        <v>95</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>17790</v>
+      </c>
+      <c r="E30">
+        <v>118818</v>
+      </c>
+      <c r="F30">
+        <v>7616</v>
+      </c>
+      <c r="G30">
+        <v>205267</v>
+      </c>
+      <c r="H30">
+        <v>3217</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>6</v>
+      </c>
+      <c r="M30">
+        <v>1255</v>
+      </c>
+      <c r="N30">
+        <v>721</v>
+      </c>
+      <c r="O30">
+        <v>1047</v>
+      </c>
+      <c r="P30">
+        <v>779</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>17902</v>
+      </c>
+      <c r="T30">
+        <v>1555</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>18302</v>
+      </c>
+      <c r="W30">
+        <v>1555</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>100</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>105</v>
+      </c>
+      <c r="D31">
+        <v>17389</v>
+      </c>
+      <c r="E31">
+        <v>115254</v>
+      </c>
+      <c r="F31">
+        <v>7371</v>
+      </c>
+      <c r="G31">
+        <v>202655</v>
+      </c>
+      <c r="H31">
+        <v>3144</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <v>1226</v>
+      </c>
+      <c r="N31">
+        <v>684</v>
+      </c>
+      <c r="O31">
+        <v>1023</v>
+      </c>
+      <c r="P31">
+        <v>738</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>17638</v>
+      </c>
+      <c r="T31">
+        <v>1526</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>18038</v>
+      </c>
+      <c r="W31">
+        <v>1526</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>105</v>
+      </c>
+      <c r="B32">
+        <v>105</v>
+      </c>
+      <c r="C32">
+        <v>110</v>
+      </c>
+      <c r="D32">
+        <v>16895</v>
+      </c>
+      <c r="E32">
+        <v>111360</v>
+      </c>
+      <c r="F32">
+        <v>7119</v>
+      </c>
+      <c r="G32">
+        <v>199386</v>
+      </c>
+      <c r="H32">
+        <v>3064</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>6</v>
+      </c>
+      <c r="M32">
+        <v>1198</v>
+      </c>
+      <c r="N32">
+        <v>650</v>
+      </c>
+      <c r="O32">
+        <v>998</v>
+      </c>
+      <c r="P32">
+        <v>700</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>17268</v>
+      </c>
+      <c r="T32">
+        <v>1498</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>17668</v>
+      </c>
+      <c r="W32">
+        <v>1498</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>110</v>
+      </c>
+      <c r="B33">
+        <v>110</v>
+      </c>
+      <c r="C33">
+        <v>115</v>
+      </c>
+      <c r="D33">
+        <v>16713</v>
+      </c>
+      <c r="E33">
+        <v>110444</v>
+      </c>
+      <c r="F33">
+        <v>7077</v>
+      </c>
+      <c r="G33">
+        <v>198134</v>
+      </c>
+      <c r="H33">
+        <v>3046</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>6</v>
+      </c>
+      <c r="M33">
+        <v>1194</v>
+      </c>
+      <c r="N33">
+        <v>650</v>
+      </c>
+      <c r="O33">
+        <v>994</v>
+      </c>
+      <c r="P33">
+        <v>700</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>17087</v>
+      </c>
+      <c r="T33">
+        <v>1494</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>17486</v>
+      </c>
+      <c r="W33">
+        <v>1494</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>115</v>
+      </c>
+      <c r="B34">
+        <v>115</v>
+      </c>
+      <c r="C34">
+        <v>120</v>
+      </c>
+      <c r="D34">
+        <v>16532</v>
+      </c>
+      <c r="E34">
+        <v>109528</v>
+      </c>
+      <c r="F34">
+        <v>7036</v>
+      </c>
+      <c r="G34">
+        <v>196882</v>
+      </c>
+      <c r="H34">
+        <v>3028</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>6</v>
+      </c>
+      <c r="M34">
+        <v>1191</v>
+      </c>
+      <c r="N34">
+        <v>650</v>
+      </c>
+      <c r="O34">
+        <v>991</v>
+      </c>
+      <c r="P34">
+        <v>700</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>16905</v>
+      </c>
+      <c r="T34">
+        <v>1491</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>17304</v>
+      </c>
+      <c r="W34">
+        <v>1491</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>120</v>
+      </c>
+      <c r="B35">
+        <v>120</v>
+      </c>
+      <c r="C35">
+        <v>125</v>
+      </c>
+      <c r="D35">
+        <v>16351</v>
+      </c>
+      <c r="E35">
+        <v>108612</v>
+      </c>
+      <c r="F35">
+        <v>6995</v>
+      </c>
+      <c r="G35">
+        <v>195630</v>
+      </c>
+      <c r="H35">
+        <v>3010</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>6</v>
+      </c>
+      <c r="M35">
+        <v>1187</v>
+      </c>
+      <c r="N35">
+        <v>650</v>
+      </c>
+      <c r="O35">
+        <v>987</v>
+      </c>
+      <c r="P35">
+        <v>700</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>16723</v>
+      </c>
+      <c r="T35">
+        <v>1487</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>17122</v>
+      </c>
+      <c r="W35">
+        <v>1487</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>125</v>
+      </c>
+      <c r="B36">
+        <v>125</v>
+      </c>
+      <c r="C36">
+        <v>130</v>
+      </c>
+      <c r="D36">
+        <v>16170</v>
+      </c>
+      <c r="E36">
+        <v>107696</v>
+      </c>
+      <c r="F36">
+        <v>6954</v>
+      </c>
+      <c r="G36">
+        <v>194379</v>
+      </c>
+      <c r="H36">
+        <v>2993</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>6</v>
+      </c>
+      <c r="M36">
+        <v>1184</v>
+      </c>
+      <c r="N36">
+        <v>650</v>
+      </c>
+      <c r="O36">
+        <v>984</v>
+      </c>
+      <c r="P36">
+        <v>700</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>16542</v>
+      </c>
+      <c r="T36">
+        <v>1484</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>16940</v>
+      </c>
+      <c r="W36">
+        <v>1484</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>130</v>
+      </c>
+      <c r="B37">
+        <v>130</v>
+      </c>
+      <c r="C37">
+        <v>135</v>
+      </c>
+      <c r="D37">
+        <v>15989</v>
+      </c>
+      <c r="E37">
+        <v>106780</v>
+      </c>
+      <c r="F37">
+        <v>6913</v>
+      </c>
+      <c r="G37">
+        <v>193127</v>
+      </c>
+      <c r="H37">
+        <v>2975</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>6</v>
+      </c>
+      <c r="M37">
+        <v>1180</v>
+      </c>
+      <c r="N37">
+        <v>650</v>
+      </c>
+      <c r="O37">
+        <v>980</v>
+      </c>
+      <c r="P37">
+        <v>700</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>16360</v>
+      </c>
+      <c r="T37">
+        <v>1480</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>16758</v>
+      </c>
+      <c r="W37">
+        <v>1480</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>135</v>
+      </c>
+      <c r="B38">
+        <v>135</v>
+      </c>
+      <c r="C38">
+        <v>140</v>
+      </c>
+      <c r="D38">
+        <v>15808</v>
+      </c>
+      <c r="E38">
+        <v>105864</v>
+      </c>
+      <c r="F38">
+        <v>6871</v>
+      </c>
+      <c r="G38">
+        <v>191875</v>
+      </c>
+      <c r="H38">
+        <v>2957</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>6</v>
+      </c>
+      <c r="M38">
+        <v>1177</v>
+      </c>
+      <c r="N38">
+        <v>650</v>
+      </c>
+      <c r="O38">
+        <v>977</v>
+      </c>
+      <c r="P38">
+        <v>700</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>16179</v>
+      </c>
+      <c r="T38">
+        <v>1477</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>16575</v>
+      </c>
+      <c r="W38">
+        <v>1477</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>140</v>
+      </c>
+      <c r="B39">
+        <v>140</v>
+      </c>
+      <c r="C39">
+        <v>145</v>
+      </c>
+      <c r="D39">
+        <v>15626</v>
+      </c>
+      <c r="E39">
+        <v>104948</v>
+      </c>
+      <c r="F39">
+        <v>6830</v>
+      </c>
+      <c r="G39">
+        <v>190623</v>
+      </c>
+      <c r="H39">
+        <v>2939</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>6</v>
+      </c>
+      <c r="M39">
+        <v>1173</v>
+      </c>
+      <c r="N39">
+        <v>650</v>
+      </c>
+      <c r="O39">
+        <v>973</v>
+      </c>
+      <c r="P39">
+        <v>700</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
+        <v>15997</v>
+      </c>
+      <c r="T39">
+        <v>1473</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>16393</v>
+      </c>
+      <c r="W39">
+        <v>1473</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>145</v>
+      </c>
+      <c r="B40">
+        <v>145</v>
+      </c>
+      <c r="C40">
+        <v>150</v>
+      </c>
+      <c r="D40">
+        <v>15445</v>
+      </c>
+      <c r="E40">
+        <v>104032</v>
+      </c>
+      <c r="F40">
+        <v>6789</v>
+      </c>
+      <c r="G40">
+        <v>189371</v>
+      </c>
+      <c r="H40">
+        <v>2921</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>6</v>
+      </c>
+      <c r="M40">
+        <v>1170</v>
+      </c>
+      <c r="N40">
+        <v>650</v>
+      </c>
+      <c r="O40">
+        <v>970</v>
+      </c>
+      <c r="P40">
+        <v>700</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="S40">
+        <v>15815</v>
+      </c>
+      <c r="T40">
+        <v>1470</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>16211</v>
+      </c>
+      <c r="W40">
+        <v>1470</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>150</v>
+      </c>
+      <c r="B41">
+        <v>150</v>
+      </c>
+      <c r="C41">
+        <v>155</v>
+      </c>
+      <c r="D41">
+        <v>15264</v>
+      </c>
+      <c r="E41">
+        <v>103116</v>
+      </c>
+      <c r="F41">
+        <v>6748</v>
+      </c>
+      <c r="G41">
+        <v>188119</v>
+      </c>
+      <c r="H41">
+        <v>2903</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>6</v>
+      </c>
+      <c r="M41">
+        <v>1166</v>
+      </c>
+      <c r="N41">
+        <v>650</v>
+      </c>
+      <c r="O41">
+        <v>966</v>
+      </c>
+      <c r="P41">
+        <v>700</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="S41">
+        <v>15634</v>
+      </c>
+      <c r="T41">
+        <v>1466</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>16029</v>
+      </c>
+      <c r="W41">
+        <v>1466</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>155</v>
+      </c>
+      <c r="B42">
+        <v>155</v>
+      </c>
+      <c r="C42">
+        <v>160</v>
+      </c>
+      <c r="D42">
+        <v>15083</v>
+      </c>
+      <c r="E42">
+        <v>102200</v>
+      </c>
+      <c r="F42">
+        <v>6707</v>
+      </c>
+      <c r="G42">
+        <v>186868</v>
+      </c>
+      <c r="H42">
+        <v>2885</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>6</v>
+      </c>
+      <c r="M42">
+        <v>1163</v>
+      </c>
+      <c r="N42">
+        <v>650</v>
+      </c>
+      <c r="O42">
+        <v>963</v>
+      </c>
+      <c r="P42">
+        <v>700</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="S42">
+        <v>15452</v>
+      </c>
+      <c r="T42">
+        <v>1463</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>15847</v>
+      </c>
+      <c r="W42">
+        <v>1463</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>160</v>
+      </c>
+      <c r="B43">
+        <v>160</v>
+      </c>
+      <c r="C43">
+        <v>165</v>
+      </c>
+      <c r="D43">
+        <v>14902</v>
+      </c>
+      <c r="E43">
+        <v>101284</v>
+      </c>
+      <c r="F43">
+        <v>6666</v>
+      </c>
+      <c r="G43">
+        <v>185616</v>
+      </c>
+      <c r="H43">
+        <v>2867</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>6</v>
+      </c>
+      <c r="M43">
+        <v>1159</v>
+      </c>
+      <c r="N43">
+        <v>650</v>
+      </c>
+      <c r="O43">
+        <v>959</v>
+      </c>
+      <c r="P43">
+        <v>700</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <v>15271</v>
+      </c>
+      <c r="T43">
+        <v>1459</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>15665</v>
+      </c>
+      <c r="W43">
+        <v>1459</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>165</v>
+      </c>
+      <c r="B44">
+        <v>165</v>
+      </c>
+      <c r="C44">
+        <v>170</v>
+      </c>
+      <c r="D44">
+        <v>14721</v>
+      </c>
+      <c r="E44">
+        <v>100369</v>
+      </c>
+      <c r="F44">
+        <v>6624</v>
+      </c>
+      <c r="G44">
+        <v>184364</v>
+      </c>
+      <c r="H44">
+        <v>2849</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>1156</v>
+      </c>
+      <c r="N44">
+        <v>650</v>
+      </c>
+      <c r="O44">
+        <v>956</v>
+      </c>
+      <c r="P44">
+        <v>700</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>15089</v>
+      </c>
+      <c r="T44">
+        <v>1456</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>15483</v>
+      </c>
+      <c r="W44">
+        <v>1456</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>170</v>
+      </c>
+      <c r="B45">
+        <v>170</v>
+      </c>
+      <c r="C45">
+        <v>175</v>
+      </c>
+      <c r="D45">
+        <v>14540</v>
+      </c>
+      <c r="E45">
+        <v>99453</v>
+      </c>
+      <c r="F45">
+        <v>6583</v>
+      </c>
+      <c r="G45">
+        <v>183112</v>
+      </c>
+      <c r="H45">
+        <v>2831</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>6</v>
+      </c>
+      <c r="M45">
+        <v>1152</v>
+      </c>
+      <c r="N45">
+        <v>650</v>
+      </c>
+      <c r="O45">
+        <v>952</v>
+      </c>
+      <c r="P45">
+        <v>700</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>14907</v>
+      </c>
+      <c r="T45">
+        <v>1452</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>15301</v>
+      </c>
+      <c r="W45">
+        <v>1452</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>175</v>
+      </c>
+      <c r="B46">
+        <v>175</v>
+      </c>
+      <c r="C46">
+        <v>180</v>
+      </c>
+      <c r="D46">
+        <v>14358</v>
+      </c>
+      <c r="E46">
+        <v>98537</v>
+      </c>
+      <c r="F46">
+        <v>6542</v>
+      </c>
+      <c r="G46">
+        <v>181860</v>
+      </c>
+      <c r="H46">
+        <v>2813</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>6</v>
+      </c>
+      <c r="M46">
+        <v>1149</v>
+      </c>
+      <c r="N46">
+        <v>650</v>
+      </c>
+      <c r="O46">
+        <v>949</v>
+      </c>
+      <c r="P46">
+        <v>700</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>14726</v>
+      </c>
+      <c r="T46">
+        <v>1449</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>15119</v>
+      </c>
+      <c r="W46">
+        <v>1449</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>180</v>
+      </c>
+      <c r="B47">
+        <v>180</v>
+      </c>
+      <c r="C47">
+        <v>185</v>
+      </c>
+      <c r="D47">
+        <v>14177</v>
+      </c>
+      <c r="E47">
+        <v>97621</v>
+      </c>
+      <c r="F47">
+        <v>6501</v>
+      </c>
+      <c r="G47">
+        <v>180608</v>
+      </c>
+      <c r="H47">
+        <v>2795</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>1145</v>
+      </c>
+      <c r="N47">
+        <v>650</v>
+      </c>
+      <c r="O47">
+        <v>945</v>
+      </c>
+      <c r="P47">
+        <v>700</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>14544</v>
+      </c>
+      <c r="T47">
+        <v>1445</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>14937</v>
+      </c>
+      <c r="W47">
+        <v>1445</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>185</v>
+      </c>
+      <c r="B48">
+        <v>185</v>
+      </c>
+      <c r="C48">
+        <v>190</v>
+      </c>
+      <c r="D48">
+        <v>13996</v>
+      </c>
+      <c r="E48">
+        <v>96705</v>
+      </c>
+      <c r="F48">
+        <v>6460</v>
+      </c>
+      <c r="G48">
+        <v>179357</v>
+      </c>
+      <c r="H48">
+        <v>2777</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>6</v>
+      </c>
+      <c r="M48">
+        <v>1142</v>
+      </c>
+      <c r="N48">
+        <v>650</v>
+      </c>
+      <c r="O48">
+        <v>942</v>
+      </c>
+      <c r="P48">
+        <v>700</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>14363</v>
+      </c>
+      <c r="T48">
+        <v>1442</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>14755</v>
+      </c>
+      <c r="W48">
+        <v>1442</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>190</v>
+      </c>
+      <c r="B49">
+        <v>190</v>
+      </c>
+      <c r="C49">
+        <v>195</v>
+      </c>
+      <c r="D49">
+        <v>13815</v>
+      </c>
+      <c r="E49">
+        <v>95789</v>
+      </c>
+      <c r="F49">
+        <v>6418</v>
+      </c>
+      <c r="G49">
+        <v>178105</v>
+      </c>
+      <c r="H49">
+        <v>2760</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>6</v>
+      </c>
+      <c r="M49">
+        <v>1138</v>
+      </c>
+      <c r="N49">
+        <v>650</v>
+      </c>
+      <c r="O49">
+        <v>938</v>
+      </c>
+      <c r="P49">
+        <v>700</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
+        <v>14181</v>
+      </c>
+      <c r="T49">
+        <v>1438</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>14573</v>
+      </c>
+      <c r="W49">
+        <v>1438</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>195</v>
+      </c>
+      <c r="B50">
+        <v>195</v>
+      </c>
+      <c r="C50">
+        <v>200</v>
+      </c>
+      <c r="D50">
+        <v>13634</v>
+      </c>
+      <c r="E50">
+        <v>94873</v>
+      </c>
+      <c r="F50">
+        <v>6377</v>
+      </c>
+      <c r="G50">
+        <v>176853</v>
+      </c>
+      <c r="H50">
+        <v>2742</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>5</v>
+      </c>
+      <c r="M50">
+        <v>1135</v>
+      </c>
+      <c r="N50">
+        <v>650</v>
+      </c>
+      <c r="O50">
+        <v>935</v>
+      </c>
+      <c r="P50">
+        <v>700</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>13999</v>
+      </c>
+      <c r="T50">
+        <v>1435</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>14390</v>
+      </c>
+      <c r="W50">
+        <v>1435</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>200</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+      <c r="C51">
+        <v>220</v>
+      </c>
+      <c r="D51">
+        <v>13453</v>
+      </c>
+      <c r="E51">
+        <v>93957</v>
+      </c>
+      <c r="F51">
+        <v>6336</v>
+      </c>
+      <c r="G51">
+        <v>175601</v>
+      </c>
+      <c r="H51">
+        <v>2724</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>5</v>
+      </c>
+      <c r="M51">
+        <v>1131</v>
+      </c>
+      <c r="N51">
+        <v>650</v>
+      </c>
+      <c r="O51">
+        <v>931</v>
+      </c>
+      <c r="P51">
+        <v>700</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <v>13818</v>
+      </c>
+      <c r="T51">
+        <v>1431</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>14208</v>
+      </c>
+      <c r="W51">
+        <v>1431</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>220</v>
+      </c>
+      <c r="B52">
+        <v>220</v>
+      </c>
+      <c r="C52">
+        <v>240</v>
+      </c>
+      <c r="D52">
+        <v>13271</v>
+      </c>
+      <c r="E52">
+        <v>93041</v>
+      </c>
+      <c r="F52">
+        <v>6295</v>
+      </c>
+      <c r="G52">
+        <v>174349</v>
+      </c>
+      <c r="H52">
+        <v>2706</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>5</v>
+      </c>
+      <c r="M52">
+        <v>1128</v>
+      </c>
+      <c r="N52">
+        <v>650</v>
+      </c>
+      <c r="O52">
+        <v>928</v>
+      </c>
+      <c r="P52">
+        <v>700</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="S52">
+        <v>13636</v>
+      </c>
+      <c r="T52">
+        <v>1428</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>14026</v>
+      </c>
+      <c r="W52">
+        <v>1428</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>240</v>
+      </c>
+      <c r="B53">
+        <v>240</v>
+      </c>
+      <c r="C53">
+        <v>260</v>
+      </c>
+      <c r="D53">
+        <v>13090</v>
+      </c>
+      <c r="E53">
+        <v>92125</v>
+      </c>
+      <c r="F53">
+        <v>6254</v>
+      </c>
+      <c r="G53">
+        <v>173098</v>
+      </c>
+      <c r="H53">
+        <v>2688</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="M53">
+        <v>1124</v>
+      </c>
+      <c r="N53">
+        <v>650</v>
+      </c>
+      <c r="O53">
+        <v>924</v>
+      </c>
+      <c r="P53">
+        <v>700</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>13455</v>
+      </c>
+      <c r="T53">
+        <v>1424</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <v>13844</v>
+      </c>
+      <c r="W53">
+        <v>1424</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>260</v>
+      </c>
+      <c r="B54">
+        <v>260</v>
+      </c>
+      <c r="C54">
+        <v>280</v>
+      </c>
+      <c r="D54">
+        <v>12909</v>
+      </c>
+      <c r="E54">
+        <v>91209</v>
+      </c>
+      <c r="F54">
+        <v>6212</v>
+      </c>
+      <c r="G54">
+        <v>171846</v>
+      </c>
+      <c r="H54">
+        <v>2670</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>5</v>
+      </c>
+      <c r="M54">
+        <v>1121</v>
+      </c>
+      <c r="N54">
+        <v>650</v>
+      </c>
+      <c r="O54">
+        <v>921</v>
+      </c>
+      <c r="P54">
+        <v>700</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>13273</v>
+      </c>
+      <c r="T54">
+        <v>1421</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>13662</v>
+      </c>
+      <c r="W54">
+        <v>1421</v>
+      </c>
+      <c r="X54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>280</v>
+      </c>
+      <c r="B55">
+        <v>280</v>
+      </c>
+      <c r="C55">
+        <v>300</v>
+      </c>
+      <c r="D55">
+        <v>12728</v>
+      </c>
+      <c r="E55">
+        <v>90293</v>
+      </c>
+      <c r="F55">
+        <v>6171</v>
+      </c>
+      <c r="G55">
+        <v>170594</v>
+      </c>
+      <c r="H55">
+        <v>2652</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>5</v>
+      </c>
+      <c r="M55">
+        <v>1117</v>
+      </c>
+      <c r="N55">
+        <v>650</v>
+      </c>
+      <c r="O55">
+        <v>917</v>
+      </c>
+      <c r="P55">
+        <v>700</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>13091</v>
+      </c>
+      <c r="T55">
+        <v>1417</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>13480</v>
+      </c>
+      <c r="W55">
+        <v>1417</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>300</v>
+      </c>
+      <c r="B56">
+        <v>300</v>
+      </c>
+      <c r="C56">
+        <v>320</v>
+      </c>
+      <c r="D56">
+        <v>12547</v>
+      </c>
+      <c r="E56">
+        <v>89377</v>
+      </c>
+      <c r="F56">
+        <v>6130</v>
+      </c>
+      <c r="G56">
+        <v>169342</v>
+      </c>
+      <c r="H56">
+        <v>2634</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56">
+        <v>1114</v>
+      </c>
+      <c r="N56">
+        <v>650</v>
+      </c>
+      <c r="O56">
+        <v>914</v>
+      </c>
+      <c r="P56">
+        <v>700</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>12910</v>
+      </c>
+      <c r="T56">
+        <v>1414</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <v>13298</v>
+      </c>
+      <c r="W56">
+        <v>1414</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>320</v>
+      </c>
+      <c r="B57">
+        <v>320</v>
+      </c>
+      <c r="C57">
+        <v>340</v>
+      </c>
+      <c r="D57">
+        <v>12366</v>
+      </c>
+      <c r="E57">
+        <v>88461</v>
+      </c>
+      <c r="F57">
+        <v>6089</v>
+      </c>
+      <c r="G57">
+        <v>168090</v>
+      </c>
+      <c r="H57">
+        <v>2616</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>5</v>
+      </c>
+      <c r="M57">
+        <v>1110</v>
+      </c>
+      <c r="N57">
+        <v>650</v>
+      </c>
+      <c r="O57">
+        <v>910</v>
+      </c>
+      <c r="P57">
+        <v>700</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>12728</v>
+      </c>
+      <c r="T57">
+        <v>1410</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>13116</v>
+      </c>
+      <c r="W57">
+        <v>1410</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>340</v>
+      </c>
+      <c r="B58">
+        <v>340</v>
+      </c>
+      <c r="C58">
+        <v>360</v>
+      </c>
+      <c r="D58">
+        <v>12184</v>
+      </c>
+      <c r="E58">
+        <v>87545</v>
+      </c>
+      <c r="F58">
+        <v>6048</v>
+      </c>
+      <c r="G58">
+        <v>166838</v>
+      </c>
+      <c r="H58">
+        <v>2598</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>5</v>
+      </c>
+      <c r="M58">
+        <v>1107</v>
+      </c>
+      <c r="N58">
+        <v>650</v>
+      </c>
+      <c r="O58">
+        <v>907</v>
+      </c>
+      <c r="P58">
+        <v>700</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>12546</v>
+      </c>
+      <c r="T58">
+        <v>1407</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>12934</v>
+      </c>
+      <c r="W58">
+        <v>1407</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>360</v>
+      </c>
+      <c r="B59">
+        <v>360</v>
+      </c>
+      <c r="C59">
+        <v>380</v>
+      </c>
+      <c r="D59">
+        <v>12003</v>
+      </c>
+      <c r="E59">
+        <v>86629</v>
+      </c>
+      <c r="F59">
+        <v>6007</v>
+      </c>
+      <c r="G59">
+        <v>165587</v>
+      </c>
+      <c r="H59">
+        <v>2580</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>5</v>
+      </c>
+      <c r="M59">
+        <v>1103</v>
+      </c>
+      <c r="N59">
+        <v>650</v>
+      </c>
+      <c r="O59">
+        <v>903</v>
+      </c>
+      <c r="P59">
+        <v>700</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+      <c r="S59">
+        <v>12365</v>
+      </c>
+      <c r="T59">
+        <v>1403</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>12752</v>
+      </c>
+      <c r="W59">
+        <v>1403</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>380</v>
+      </c>
+      <c r="B60">
+        <v>380</v>
+      </c>
+      <c r="C60">
+        <v>400</v>
+      </c>
+      <c r="D60">
+        <v>11822</v>
+      </c>
+      <c r="E60">
+        <v>85714</v>
+      </c>
+      <c r="F60">
+        <v>5965</v>
+      </c>
+      <c r="G60">
+        <v>164335</v>
+      </c>
+      <c r="H60">
+        <v>2562</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>5</v>
+      </c>
+      <c r="M60">
+        <v>1100</v>
+      </c>
+      <c r="N60">
+        <v>650</v>
+      </c>
+      <c r="O60">
+        <v>900</v>
+      </c>
+      <c r="P60">
+        <v>700</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>12183</v>
+      </c>
+      <c r="T60">
+        <v>1400</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>12570</v>
+      </c>
+      <c r="W60">
+        <v>1400</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>400</v>
+      </c>
+      <c r="B61">
+        <v>400</v>
+      </c>
+      <c r="C61">
+        <v>420</v>
+      </c>
+      <c r="D61">
+        <v>11641</v>
+      </c>
+      <c r="E61">
+        <v>84798</v>
+      </c>
+      <c r="F61">
+        <v>5924</v>
+      </c>
+      <c r="G61">
+        <v>163083</v>
+      </c>
+      <c r="H61">
+        <v>2545</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>5</v>
+      </c>
+      <c r="M61">
+        <v>1096</v>
+      </c>
+      <c r="N61">
+        <v>650</v>
+      </c>
+      <c r="O61">
+        <v>896</v>
+      </c>
+      <c r="P61">
+        <v>700</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>12002</v>
+      </c>
+      <c r="T61">
+        <v>1396</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>12388</v>
+      </c>
+      <c r="W61">
+        <v>1396</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>420</v>
+      </c>
+      <c r="B62">
+        <v>420</v>
+      </c>
+      <c r="C62">
+        <v>440</v>
+      </c>
+      <c r="D62">
+        <v>11460</v>
+      </c>
+      <c r="E62">
+        <v>83882</v>
+      </c>
+      <c r="F62">
+        <v>5883</v>
+      </c>
+      <c r="G62">
+        <v>161831</v>
+      </c>
+      <c r="H62">
+        <v>2527</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>5</v>
+      </c>
+      <c r="M62">
+        <v>1093</v>
+      </c>
+      <c r="N62">
+        <v>650</v>
+      </c>
+      <c r="O62">
+        <v>893</v>
+      </c>
+      <c r="P62">
+        <v>700</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>2</v>
+      </c>
+      <c r="S62">
+        <v>11820</v>
+      </c>
+      <c r="T62">
+        <v>1393</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="V62">
+        <v>12205</v>
+      </c>
+      <c r="W62">
+        <v>1393</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>440</v>
+      </c>
+      <c r="B63">
+        <v>440</v>
+      </c>
+      <c r="C63">
+        <v>460</v>
+      </c>
+      <c r="D63">
+        <v>11279</v>
+      </c>
+      <c r="E63">
+        <v>82966</v>
+      </c>
+      <c r="F63">
+        <v>5842</v>
+      </c>
+      <c r="G63">
+        <v>160579</v>
+      </c>
+      <c r="H63">
+        <v>2509</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>5</v>
+      </c>
+      <c r="M63">
+        <v>1089</v>
+      </c>
+      <c r="N63">
+        <v>650</v>
+      </c>
+      <c r="O63">
+        <v>889</v>
+      </c>
+      <c r="P63">
+        <v>700</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>11638</v>
+      </c>
+      <c r="T63">
+        <v>1389</v>
+      </c>
+      <c r="U63">
+        <v>1</v>
+      </c>
+      <c r="V63">
+        <v>12023</v>
+      </c>
+      <c r="W63">
+        <v>1389</v>
+      </c>
+      <c r="X63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>460</v>
+      </c>
+      <c r="B64">
+        <v>460</v>
+      </c>
+      <c r="C64">
+        <v>480</v>
+      </c>
+      <c r="D64">
+        <v>11097</v>
+      </c>
+      <c r="E64">
+        <v>82050</v>
+      </c>
+      <c r="F64">
+        <v>5801</v>
+      </c>
+      <c r="G64">
+        <v>159327</v>
+      </c>
+      <c r="H64">
+        <v>2491</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>5</v>
+      </c>
+      <c r="M64">
+        <v>1086</v>
+      </c>
+      <c r="N64">
+        <v>650</v>
+      </c>
+      <c r="O64">
+        <v>886</v>
+      </c>
+      <c r="P64">
+        <v>700</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>11457</v>
+      </c>
+      <c r="T64">
+        <v>1386</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+      <c r="V64">
+        <v>11841</v>
+      </c>
+      <c r="W64">
+        <v>1386</v>
+      </c>
+      <c r="X64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>480</v>
+      </c>
+      <c r="B65">
+        <v>480</v>
+      </c>
+      <c r="C65">
+        <v>500</v>
+      </c>
+      <c r="D65">
+        <v>10916</v>
+      </c>
+      <c r="E65">
+        <v>81134</v>
+      </c>
+      <c r="F65">
+        <v>5759</v>
+      </c>
+      <c r="G65">
+        <v>158076</v>
+      </c>
+      <c r="H65">
+        <v>2473</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>5</v>
+      </c>
+      <c r="M65">
+        <v>1082</v>
+      </c>
+      <c r="N65">
+        <v>650</v>
+      </c>
+      <c r="O65">
+        <v>882</v>
+      </c>
+      <c r="P65">
+        <v>700</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>11275</v>
+      </c>
+      <c r="T65">
+        <v>1382</v>
+      </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
+      <c r="V65">
+        <v>11659</v>
+      </c>
+      <c r="W65">
+        <v>1382</v>
+      </c>
+      <c r="X65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>500</v>
+      </c>
+      <c r="B66">
+        <v>500</v>
+      </c>
+      <c r="C66">
+        <v>550</v>
+      </c>
+      <c r="D66">
+        <v>10735</v>
+      </c>
+      <c r="E66">
+        <v>80218</v>
+      </c>
+      <c r="F66">
+        <v>5718</v>
+      </c>
+      <c r="G66">
+        <v>156824</v>
+      </c>
+      <c r="H66">
+        <v>2455</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>5</v>
+      </c>
+      <c r="M66">
+        <v>1079</v>
+      </c>
+      <c r="N66">
+        <v>650</v>
+      </c>
+      <c r="O66">
+        <v>879</v>
+      </c>
+      <c r="P66">
+        <v>700</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>11094</v>
+      </c>
+      <c r="T66">
+        <v>1379</v>
+      </c>
+      <c r="U66">
+        <v>1</v>
+      </c>
+      <c r="V66">
+        <v>11477</v>
+      </c>
+      <c r="W66">
+        <v>1379</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>550</v>
+      </c>
+      <c r="B67">
+        <v>550</v>
+      </c>
+      <c r="C67">
+        <v>600</v>
+      </c>
+      <c r="D67">
+        <v>10554</v>
+      </c>
+      <c r="E67">
+        <v>79302</v>
+      </c>
+      <c r="F67">
+        <v>5677</v>
+      </c>
+      <c r="G67">
+        <v>155572</v>
+      </c>
+      <c r="H67">
+        <v>2437</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>5</v>
+      </c>
+      <c r="M67">
+        <v>1075</v>
+      </c>
+      <c r="N67">
+        <v>650</v>
+      </c>
+      <c r="O67">
+        <v>875</v>
+      </c>
+      <c r="P67">
+        <v>700</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>10912</v>
+      </c>
+      <c r="T67">
+        <v>1375</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="V67">
+        <v>11295</v>
+      </c>
+      <c r="W67">
+        <v>1375</v>
+      </c>
+      <c r="X67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>600</v>
+      </c>
+      <c r="B68">
+        <v>600</v>
+      </c>
+      <c r="C68">
+        <v>650</v>
+      </c>
+      <c r="D68">
+        <v>10197</v>
+      </c>
+      <c r="E68">
+        <v>77445</v>
+      </c>
+      <c r="F68">
+        <v>5507</v>
+      </c>
+      <c r="G68">
+        <v>150583</v>
+      </c>
+      <c r="H68">
+        <v>2318</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>5</v>
+      </c>
+      <c r="M68">
+        <v>1003</v>
+      </c>
+      <c r="N68">
+        <v>605</v>
+      </c>
+      <c r="O68">
+        <v>808</v>
+      </c>
+      <c r="P68">
+        <v>650</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
+        <v>10554</v>
+      </c>
+      <c r="T68">
+        <v>1303</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>10166</v>
+      </c>
+      <c r="W68">
+        <v>1303</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>650</v>
+      </c>
+      <c r="B69">
+        <v>650</v>
+      </c>
+      <c r="C69">
+        <v>700</v>
+      </c>
+      <c r="D69">
+        <v>9840</v>
+      </c>
+      <c r="E69">
+        <v>75588</v>
+      </c>
+      <c r="F69">
+        <v>5337</v>
+      </c>
+      <c r="G69">
+        <v>145595</v>
+      </c>
+      <c r="H69">
+        <v>2199</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>5</v>
+      </c>
+      <c r="M69">
+        <v>930</v>
+      </c>
+      <c r="N69">
+        <v>560</v>
+      </c>
+      <c r="O69">
+        <v>740</v>
+      </c>
+      <c r="P69">
+        <v>600</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>2</v>
+      </c>
+      <c r="S69">
+        <v>10195</v>
+      </c>
+      <c r="T69">
+        <v>1230</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="V69">
+        <v>9036</v>
+      </c>
+      <c r="W69">
+        <v>1230</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>700</v>
+      </c>
+      <c r="B70">
+        <v>700</v>
+      </c>
+      <c r="C70">
+        <v>750</v>
+      </c>
+      <c r="D70">
+        <v>9483</v>
+      </c>
+      <c r="E70">
+        <v>73731</v>
+      </c>
+      <c r="F70">
+        <v>5166</v>
+      </c>
+      <c r="G70">
+        <v>140606</v>
+      </c>
+      <c r="H70">
+        <v>2080</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>5</v>
+      </c>
+      <c r="M70">
+        <v>858</v>
+      </c>
+      <c r="N70">
+        <v>515</v>
+      </c>
+      <c r="O70">
+        <v>673</v>
+      </c>
+      <c r="P70">
+        <v>550</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>9837</v>
+      </c>
+      <c r="T70">
+        <v>1158</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="V70">
+        <v>7907</v>
+      </c>
+      <c r="W70">
+        <v>1158</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>750</v>
+      </c>
+      <c r="B71">
+        <v>750</v>
+      </c>
+      <c r="C71">
+        <v>800</v>
+      </c>
+      <c r="D71">
+        <v>9126</v>
+      </c>
+      <c r="E71">
+        <v>71874</v>
+      </c>
+      <c r="F71">
+        <v>4996</v>
+      </c>
+      <c r="G71">
+        <v>135618</v>
+      </c>
+      <c r="H71">
+        <v>1961</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>5</v>
+      </c>
+      <c r="M71">
+        <v>785</v>
+      </c>
+      <c r="N71">
+        <v>470</v>
+      </c>
+      <c r="O71">
+        <v>605</v>
+      </c>
+      <c r="P71">
+        <v>500</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>9478</v>
+      </c>
+      <c r="T71">
+        <v>1085</v>
+      </c>
+      <c r="U71">
+        <v>1</v>
+      </c>
+      <c r="V71">
+        <v>6777</v>
+      </c>
+      <c r="W71">
+        <v>1085</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>800</v>
+      </c>
+      <c r="B72">
+        <v>800</v>
+      </c>
+      <c r="C72">
+        <v>850</v>
+      </c>
+      <c r="D72">
+        <v>8769</v>
+      </c>
+      <c r="E72">
+        <v>70018</v>
+      </c>
+      <c r="F72">
+        <v>4826</v>
+      </c>
+      <c r="G72">
+        <v>130629</v>
+      </c>
+      <c r="H72">
+        <v>1842</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <v>713</v>
+      </c>
+      <c r="N72">
+        <v>425</v>
+      </c>
+      <c r="O72">
+        <v>538</v>
+      </c>
+      <c r="P72">
+        <v>450</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>2</v>
+      </c>
+      <c r="S72">
+        <v>9120</v>
+      </c>
+      <c r="T72">
+        <v>1013</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>5648</v>
+      </c>
+      <c r="W72">
+        <v>1013</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>850</v>
+      </c>
+      <c r="B73">
+        <v>850</v>
+      </c>
+      <c r="C73">
+        <v>900</v>
+      </c>
+      <c r="D73">
+        <v>8412</v>
+      </c>
+      <c r="E73">
+        <v>68161</v>
+      </c>
+      <c r="F73">
+        <v>4656</v>
+      </c>
+      <c r="G73">
+        <v>125640</v>
+      </c>
+      <c r="H73">
+        <v>1722</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <v>640</v>
+      </c>
+      <c r="N73">
+        <v>380</v>
+      </c>
+      <c r="O73">
+        <v>470</v>
+      </c>
+      <c r="P73">
+        <v>400</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>8761</v>
+      </c>
+      <c r="T73">
+        <v>940</v>
+      </c>
+      <c r="U73">
+        <v>1</v>
+      </c>
+      <c r="V73">
+        <v>4518</v>
+      </c>
+      <c r="W73">
+        <v>940</v>
+      </c>
+      <c r="X73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>900</v>
+      </c>
+      <c r="B74">
+        <v>900</v>
+      </c>
+      <c r="C74">
+        <v>950</v>
+      </c>
+      <c r="D74">
+        <v>8055</v>
+      </c>
+      <c r="E74">
+        <v>66304</v>
+      </c>
+      <c r="F74">
+        <v>4486</v>
+      </c>
+      <c r="G74">
+        <v>120652</v>
+      </c>
+      <c r="H74">
+        <v>1603</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>568</v>
+      </c>
+      <c r="N74">
+        <v>335</v>
+      </c>
+      <c r="O74">
+        <v>403</v>
+      </c>
+      <c r="P74">
+        <v>350</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>8403</v>
+      </c>
+      <c r="T74">
+        <v>868</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>3389</v>
+      </c>
+      <c r="W74">
+        <v>868</v>
+      </c>
+      <c r="X74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>950</v>
+      </c>
+      <c r="B75">
+        <v>950</v>
+      </c>
+      <c r="C75">
+        <v>1000</v>
+      </c>
+      <c r="D75">
+        <v>7698</v>
+      </c>
+      <c r="E75">
+        <v>64447</v>
+      </c>
+      <c r="F75">
+        <v>4315</v>
+      </c>
+      <c r="G75">
+        <v>115663</v>
+      </c>
+      <c r="H75">
+        <v>1484</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>495</v>
+      </c>
+      <c r="N75">
+        <v>290</v>
+      </c>
+      <c r="O75">
+        <v>335</v>
+      </c>
+      <c r="P75">
+        <v>300</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>8044</v>
+      </c>
+      <c r="T75">
+        <v>795</v>
+      </c>
+      <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="V75">
+        <v>2259</v>
+      </c>
+      <c r="W75">
+        <v>795</v>
+      </c>
+      <c r="X75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1000</v>
+      </c>
+      <c r="B76">
+        <v>1000</v>
+      </c>
+      <c r="C76">
+        <v>1100</v>
+      </c>
+      <c r="D76">
+        <v>7341</v>
+      </c>
+      <c r="E76">
+        <v>62590</v>
+      </c>
+      <c r="F76">
+        <v>4145</v>
+      </c>
+      <c r="G76">
+        <v>110675</v>
+      </c>
+      <c r="H76">
+        <v>1365</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>4</v>
+      </c>
+      <c r="M76">
+        <v>423</v>
+      </c>
+      <c r="N76">
+        <v>245</v>
+      </c>
+      <c r="O76">
+        <v>268</v>
+      </c>
+      <c r="P76">
+        <v>250</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>7686</v>
+      </c>
+      <c r="T76">
+        <v>723</v>
+      </c>
+      <c r="U76">
+        <v>1</v>
+      </c>
+      <c r="V76">
+        <v>1130</v>
+      </c>
+      <c r="W76">
+        <v>723</v>
+      </c>
+      <c r="X76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1100</v>
+      </c>
+      <c r="B77">
+        <v>1100</v>
+      </c>
+      <c r="C77">
+        <v>1200</v>
+      </c>
+      <c r="D77">
+        <v>6984</v>
+      </c>
+      <c r="E77">
+        <v>60733</v>
+      </c>
+      <c r="F77">
+        <v>3975</v>
+      </c>
+      <c r="G77">
+        <v>105686</v>
+      </c>
+      <c r="H77">
+        <v>1246</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>4</v>
+      </c>
+      <c r="M77">
+        <v>350</v>
+      </c>
+      <c r="N77">
+        <v>200</v>
+      </c>
+      <c r="O77">
+        <v>200</v>
+      </c>
+      <c r="P77">
+        <v>200</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>7327</v>
+      </c>
+      <c r="T77">
+        <v>650</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>650</v>
+      </c>
+      <c r="X77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1200</v>
+      </c>
+      <c r="B78">
+        <v>1200</v>
+      </c>
+      <c r="C78">
+        <v>1300</v>
+      </c>
+      <c r="D78">
+        <v>6699</v>
+      </c>
+      <c r="E78">
+        <v>57783</v>
+      </c>
+      <c r="F78">
+        <v>3836</v>
+      </c>
+      <c r="G78">
+        <v>102981</v>
+      </c>
+      <c r="H78">
+        <v>1194</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <v>340</v>
+      </c>
+      <c r="N78">
+        <v>190</v>
+      </c>
+      <c r="O78">
+        <v>190</v>
+      </c>
+      <c r="P78">
+        <v>190</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>7086</v>
+      </c>
+      <c r="T78">
+        <v>640</v>
+      </c>
+      <c r="U78">
+        <v>1</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>640</v>
+      </c>
+      <c r="X78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1300</v>
+      </c>
+      <c r="B79">
+        <v>1300</v>
+      </c>
+      <c r="C79">
+        <v>1400</v>
+      </c>
+      <c r="D79">
+        <v>6414</v>
+      </c>
+      <c r="E79">
+        <v>54833</v>
+      </c>
+      <c r="F79">
+        <v>3697</v>
+      </c>
+      <c r="G79">
+        <v>100277</v>
+      </c>
+      <c r="H79">
+        <v>1142</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+      <c r="M79">
+        <v>330</v>
+      </c>
+      <c r="N79">
+        <v>180</v>
+      </c>
+      <c r="O79">
+        <v>180</v>
+      </c>
+      <c r="P79">
+        <v>180</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
+        <v>6845</v>
+      </c>
+      <c r="T79">
+        <v>630</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>630</v>
+      </c>
+      <c r="X79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1400</v>
+      </c>
+      <c r="B80">
+        <v>1400</v>
+      </c>
+      <c r="C80">
+        <v>1500</v>
+      </c>
+      <c r="D80">
+        <v>6128</v>
+      </c>
+      <c r="E80">
+        <v>51883</v>
+      </c>
+      <c r="F80">
+        <v>3559</v>
+      </c>
+      <c r="G80">
+        <v>97572</v>
+      </c>
+      <c r="H80">
+        <v>1090</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>320</v>
+      </c>
+      <c r="N80">
+        <v>170</v>
+      </c>
+      <c r="O80">
+        <v>170</v>
+      </c>
+      <c r="P80">
+        <v>170</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>2</v>
+      </c>
+      <c r="S80">
+        <v>6604</v>
+      </c>
+      <c r="T80">
+        <v>620</v>
+      </c>
+      <c r="U80">
+        <v>1</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>620</v>
+      </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1500</v>
+      </c>
+      <c r="B81">
+        <v>1500</v>
+      </c>
+      <c r="C81">
+        <v>1600</v>
+      </c>
+      <c r="D81">
+        <v>5843</v>
+      </c>
+      <c r="E81">
+        <v>48933</v>
+      </c>
+      <c r="F81">
+        <v>3420</v>
+      </c>
+      <c r="G81">
+        <v>94867</v>
+      </c>
+      <c r="H81">
+        <v>1038</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>310</v>
+      </c>
+      <c r="N81">
+        <v>160</v>
+      </c>
+      <c r="O81">
+        <v>160</v>
+      </c>
+      <c r="P81">
+        <v>160</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>6363</v>
+      </c>
+      <c r="T81">
+        <v>610</v>
+      </c>
+      <c r="U81">
+        <v>1</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>610</v>
+      </c>
+      <c r="X81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1600</v>
+      </c>
+      <c r="B82">
+        <v>1600</v>
+      </c>
+      <c r="C82">
+        <v>1700</v>
+      </c>
+      <c r="D82">
+        <v>5558</v>
+      </c>
+      <c r="E82">
+        <v>45984</v>
+      </c>
+      <c r="F82">
+        <v>3281</v>
+      </c>
+      <c r="G82">
+        <v>92163</v>
+      </c>
+      <c r="H82">
+        <v>986</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>300</v>
+      </c>
+      <c r="N82">
+        <v>150</v>
+      </c>
+      <c r="O82">
+        <v>150</v>
+      </c>
+      <c r="P82">
+        <v>150</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>6122</v>
+      </c>
+      <c r="T82">
+        <v>600</v>
+      </c>
+      <c r="U82">
+        <v>1</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>600</v>
+      </c>
+      <c r="X82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1700</v>
+      </c>
+      <c r="B83">
+        <v>1700</v>
+      </c>
+      <c r="C83">
+        <v>1800</v>
+      </c>
+      <c r="D83">
+        <v>5273</v>
+      </c>
+      <c r="E83">
+        <v>43034</v>
+      </c>
+      <c r="F83">
+        <v>3142</v>
+      </c>
+      <c r="G83">
+        <v>89458</v>
+      </c>
+      <c r="H83">
+        <v>934</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>3</v>
+      </c>
+      <c r="M83">
+        <v>290</v>
+      </c>
+      <c r="N83">
+        <v>140</v>
+      </c>
+      <c r="O83">
+        <v>140</v>
+      </c>
+      <c r="P83">
+        <v>140</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>5881</v>
+      </c>
+      <c r="T83">
+        <v>590</v>
+      </c>
+      <c r="U83">
+        <v>1</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>590</v>
+      </c>
+      <c r="X83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1800</v>
+      </c>
+      <c r="B84">
+        <v>1800</v>
+      </c>
+      <c r="C84">
+        <v>1900</v>
+      </c>
+      <c r="D84">
+        <v>4988</v>
+      </c>
+      <c r="E84">
+        <v>40084</v>
+      </c>
+      <c r="F84">
+        <v>3003</v>
+      </c>
+      <c r="G84">
+        <v>86753</v>
+      </c>
+      <c r="H84">
+        <v>882</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>3</v>
+      </c>
+      <c r="M84">
+        <v>280</v>
+      </c>
+      <c r="N84">
+        <v>130</v>
+      </c>
+      <c r="O84">
+        <v>130</v>
+      </c>
+      <c r="P84">
+        <v>130</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>5640</v>
+      </c>
+      <c r="T84">
+        <v>580</v>
+      </c>
+      <c r="U84">
+        <v>1</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>580</v>
+      </c>
+      <c r="X84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1900</v>
+      </c>
+      <c r="B85">
+        <v>1900</v>
+      </c>
+      <c r="C85">
+        <v>2000</v>
+      </c>
+      <c r="D85">
+        <v>4702</v>
+      </c>
+      <c r="E85">
+        <v>37134</v>
+      </c>
+      <c r="F85">
+        <v>2865</v>
+      </c>
+      <c r="G85">
+        <v>84048</v>
+      </c>
+      <c r="H85">
+        <v>830</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>3</v>
+      </c>
+      <c r="M85">
+        <v>270</v>
+      </c>
+      <c r="N85">
+        <v>120</v>
+      </c>
+      <c r="O85">
+        <v>120</v>
+      </c>
+      <c r="P85">
+        <v>120</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
+        <v>5399</v>
+      </c>
+      <c r="T85">
+        <v>570</v>
+      </c>
+      <c r="U85">
+        <v>1</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>570</v>
+      </c>
+      <c r="X85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2000</v>
+      </c>
+      <c r="B86">
+        <v>2000</v>
+      </c>
+      <c r="C86">
+        <v>2100</v>
+      </c>
+      <c r="D86">
+        <v>4417</v>
+      </c>
+      <c r="E86">
+        <v>34184</v>
+      </c>
+      <c r="F86">
+        <v>2726</v>
+      </c>
+      <c r="G86">
+        <v>81344</v>
+      </c>
+      <c r="H86">
+        <v>778</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>260</v>
+      </c>
+      <c r="N86">
+        <v>110</v>
+      </c>
+      <c r="O86">
+        <v>110</v>
+      </c>
+      <c r="P86">
+        <v>110</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>5158</v>
+      </c>
+      <c r="T86">
+        <v>560</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>560</v>
+      </c>
+      <c r="X86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2100</v>
+      </c>
+      <c r="B87">
+        <v>2100</v>
+      </c>
+      <c r="C87">
+        <v>2200</v>
+      </c>
+      <c r="D87">
+        <v>4132</v>
+      </c>
+      <c r="E87">
+        <v>31234</v>
+      </c>
+      <c r="F87">
+        <v>2587</v>
+      </c>
+      <c r="G87">
+        <v>78639</v>
+      </c>
+      <c r="H87">
+        <v>726</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>250</v>
+      </c>
+      <c r="N87">
+        <v>100</v>
+      </c>
+      <c r="O87">
+        <v>100</v>
+      </c>
+      <c r="P87">
+        <v>100</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
+        <v>4917</v>
+      </c>
+      <c r="T87">
+        <v>550</v>
+      </c>
+      <c r="U87">
+        <v>1</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>550</v>
+      </c>
+      <c r="X87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2200</v>
+      </c>
+      <c r="B88">
+        <v>2200</v>
+      </c>
+      <c r="C88">
+        <v>2300</v>
+      </c>
+      <c r="D88">
+        <v>3873</v>
+      </c>
+      <c r="E88">
+        <v>28978</v>
+      </c>
+      <c r="F88">
+        <v>2401</v>
+      </c>
+      <c r="G88">
+        <v>71983</v>
+      </c>
+      <c r="H88">
+        <v>675</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <v>240</v>
+      </c>
+      <c r="N88">
+        <v>90</v>
+      </c>
+      <c r="O88">
+        <v>90</v>
+      </c>
+      <c r="P88">
+        <v>90</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
+        <v>4625</v>
+      </c>
+      <c r="T88">
+        <v>540</v>
+      </c>
+      <c r="U88">
+        <v>1</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>540</v>
+      </c>
+      <c r="X88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2300</v>
+      </c>
+      <c r="B89">
+        <v>2300</v>
+      </c>
+      <c r="C89">
+        <v>2400</v>
+      </c>
+      <c r="D89">
+        <v>3614</v>
+      </c>
+      <c r="E89">
+        <v>26722</v>
+      </c>
+      <c r="F89">
+        <v>2215</v>
+      </c>
+      <c r="G89">
+        <v>65326</v>
+      </c>
+      <c r="H89">
+        <v>625</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>230</v>
+      </c>
+      <c r="N89">
+        <v>80</v>
+      </c>
+      <c r="O89">
+        <v>80</v>
+      </c>
+      <c r="P89">
+        <v>80</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <v>4333</v>
+      </c>
+      <c r="T89">
+        <v>530</v>
+      </c>
+      <c r="U89">
+        <v>1</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>530</v>
+      </c>
+      <c r="X89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2400</v>
+      </c>
+      <c r="B90">
+        <v>2400</v>
+      </c>
+      <c r="C90">
+        <v>2500</v>
+      </c>
+      <c r="D90">
+        <v>3355</v>
+      </c>
+      <c r="E90">
+        <v>24466</v>
+      </c>
+      <c r="F90">
+        <v>2029</v>
+      </c>
+      <c r="G90">
+        <v>58670</v>
+      </c>
+      <c r="H90">
+        <v>574</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>220</v>
+      </c>
+      <c r="N90">
+        <v>70</v>
+      </c>
+      <c r="O90">
+        <v>70</v>
+      </c>
+      <c r="P90">
+        <v>70</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>4040</v>
+      </c>
+      <c r="T90">
+        <v>520</v>
+      </c>
+      <c r="U90">
+        <v>1</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>520</v>
+      </c>
+      <c r="X90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2500</v>
+      </c>
+      <c r="B91">
+        <v>2500</v>
+      </c>
+      <c r="C91">
+        <v>2600</v>
+      </c>
+      <c r="D91">
+        <v>3096</v>
+      </c>
+      <c r="E91">
+        <v>22210</v>
+      </c>
+      <c r="F91">
+        <v>1843</v>
+      </c>
+      <c r="G91">
+        <v>52013</v>
+      </c>
+      <c r="H91">
+        <v>523</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>210</v>
+      </c>
+      <c r="N91">
+        <v>60</v>
+      </c>
+      <c r="O91">
+        <v>60</v>
+      </c>
+      <c r="P91">
+        <v>60</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>3748</v>
+      </c>
+      <c r="T91">
+        <v>510</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>510</v>
+      </c>
+      <c r="X91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2600</v>
+      </c>
+      <c r="B92">
+        <v>2600</v>
+      </c>
+      <c r="C92">
+        <v>2700</v>
+      </c>
+      <c r="D92">
+        <v>2838</v>
+      </c>
+      <c r="E92">
+        <v>19954</v>
+      </c>
+      <c r="F92">
+        <v>1658</v>
+      </c>
+      <c r="G92">
+        <v>45357</v>
+      </c>
+      <c r="H92">
+        <v>473</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>200</v>
+      </c>
+      <c r="N92">
+        <v>50</v>
+      </c>
+      <c r="O92">
+        <v>50</v>
+      </c>
+      <c r="P92">
+        <v>50</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>2</v>
+      </c>
+      <c r="S92">
+        <v>3456</v>
+      </c>
+      <c r="T92">
+        <v>500</v>
+      </c>
+      <c r="U92">
+        <v>1</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>500</v>
+      </c>
+      <c r="X92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2700</v>
+      </c>
+      <c r="B93">
+        <v>2700</v>
+      </c>
+      <c r="C93">
+        <v>2800</v>
+      </c>
+      <c r="D93">
+        <v>2579</v>
+      </c>
+      <c r="E93">
+        <v>17697</v>
+      </c>
+      <c r="F93">
+        <v>1472</v>
+      </c>
+      <c r="G93">
+        <v>38701</v>
+      </c>
+      <c r="H93">
+        <v>422</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>190</v>
+      </c>
+      <c r="N93">
+        <v>40</v>
+      </c>
+      <c r="O93">
+        <v>40</v>
+      </c>
+      <c r="P93">
+        <v>40</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>3164</v>
+      </c>
+      <c r="T93">
+        <v>490</v>
+      </c>
+      <c r="U93">
+        <v>1</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>490</v>
+      </c>
+      <c r="X93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2800</v>
+      </c>
+      <c r="B94">
+        <v>2800</v>
+      </c>
+      <c r="C94">
+        <v>2900</v>
+      </c>
+      <c r="D94">
+        <v>2320</v>
+      </c>
+      <c r="E94">
+        <v>15441</v>
+      </c>
+      <c r="F94">
+        <v>1286</v>
+      </c>
+      <c r="G94">
+        <v>32044</v>
+      </c>
+      <c r="H94">
+        <v>371</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>180</v>
+      </c>
+      <c r="N94">
+        <v>30</v>
+      </c>
+      <c r="O94">
+        <v>30</v>
+      </c>
+      <c r="P94">
+        <v>30</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>2</v>
+      </c>
+      <c r="S94">
+        <v>2872</v>
+      </c>
+      <c r="T94">
+        <v>480</v>
+      </c>
+      <c r="U94">
+        <v>1</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>480</v>
+      </c>
+      <c r="X94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2900</v>
+      </c>
+      <c r="B95">
+        <v>2900</v>
+      </c>
+      <c r="C95">
+        <v>3000</v>
+      </c>
+      <c r="D95">
+        <v>2061</v>
+      </c>
+      <c r="E95">
+        <v>13185</v>
+      </c>
+      <c r="F95">
+        <v>1100</v>
+      </c>
+      <c r="G95">
+        <v>25388</v>
+      </c>
+      <c r="H95">
+        <v>320</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>170</v>
+      </c>
+      <c r="N95">
+        <v>20</v>
+      </c>
+      <c r="O95">
+        <v>20</v>
+      </c>
+      <c r="P95">
+        <v>20</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>2579</v>
+      </c>
+      <c r="T95">
+        <v>470</v>
+      </c>
+      <c r="U95">
+        <v>1</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>470</v>
+      </c>
+      <c r="X95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>3000</v>
+      </c>
+      <c r="B96">
+        <v>3000</v>
+      </c>
+      <c r="C96">
+        <v>3100</v>
+      </c>
+      <c r="D96">
+        <v>1802</v>
+      </c>
+      <c r="E96">
+        <v>10929</v>
+      </c>
+      <c r="F96">
+        <v>914</v>
+      </c>
+      <c r="G96">
+        <v>18731</v>
+      </c>
+      <c r="H96">
+        <v>270</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>160</v>
+      </c>
+      <c r="N96">
+        <v>10</v>
+      </c>
+      <c r="O96">
+        <v>10</v>
+      </c>
+      <c r="P96">
+        <v>10</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
+        <v>2287</v>
+      </c>
+      <c r="T96">
+        <v>460</v>
+      </c>
+      <c r="U96">
+        <v>1</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>460</v>
+      </c>
+      <c r="X96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>3100</v>
+      </c>
+      <c r="B97">
+        <v>3100</v>
+      </c>
+      <c r="C97">
+        <v>3200</v>
+      </c>
+      <c r="D97">
+        <v>1543</v>
+      </c>
+      <c r="E97">
+        <v>8673</v>
+      </c>
+      <c r="F97">
+        <v>728</v>
+      </c>
+      <c r="G97">
+        <v>12075</v>
+      </c>
+      <c r="H97">
+        <v>219</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>150</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
+        <v>1995</v>
+      </c>
+      <c r="T97">
+        <v>450</v>
+      </c>
+      <c r="U97">
+        <v>1</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>450</v>
+      </c>
+      <c r="X97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>3200</v>
+      </c>
+      <c r="B98">
+        <v>3200</v>
+      </c>
+      <c r="C98">
+        <v>3300</v>
+      </c>
+      <c r="D98">
+        <v>1496</v>
+      </c>
+      <c r="E98">
+        <v>8431</v>
+      </c>
+      <c r="F98">
+        <v>703</v>
+      </c>
+      <c r="G98">
+        <v>11645</v>
+      </c>
+      <c r="H98">
+        <v>210</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>150</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>1930</v>
+      </c>
+      <c r="T98">
+        <v>450</v>
+      </c>
+      <c r="U98">
+        <v>1</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>450</v>
+      </c>
+      <c r="X98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>3300</v>
+      </c>
+      <c r="B99">
+        <v>3300</v>
+      </c>
+      <c r="C99">
+        <v>3400</v>
+      </c>
+      <c r="D99">
+        <v>1449</v>
+      </c>
+      <c r="E99">
+        <v>8189</v>
+      </c>
+      <c r="F99">
+        <v>677</v>
+      </c>
+      <c r="G99">
+        <v>11214</v>
+      </c>
+      <c r="H99">
+        <v>202</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>150</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>1866</v>
+      </c>
+      <c r="T99">
+        <v>450</v>
+      </c>
+      <c r="U99">
+        <v>1</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>450</v>
+      </c>
+      <c r="X99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>3400</v>
+      </c>
+      <c r="B100">
+        <v>3400</v>
+      </c>
+      <c r="C100">
+        <v>3500</v>
+      </c>
+      <c r="D100">
+        <v>1402</v>
+      </c>
+      <c r="E100">
+        <v>7947</v>
+      </c>
+      <c r="F100">
+        <v>652</v>
+      </c>
+      <c r="G100">
+        <v>10784</v>
+      </c>
+      <c r="H100">
+        <v>193</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>150</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>1801</v>
+      </c>
+      <c r="T100">
+        <v>450</v>
+      </c>
+      <c r="U100">
+        <v>1</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>450</v>
+      </c>
+      <c r="X100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>3500</v>
+      </c>
+      <c r="B101">
+        <v>3500</v>
+      </c>
+      <c r="C101">
+        <v>3600</v>
+      </c>
+      <c r="D101">
+        <v>1355</v>
+      </c>
+      <c r="E101">
+        <v>7705</v>
+      </c>
+      <c r="F101">
+        <v>626</v>
+      </c>
+      <c r="G101">
+        <v>10354</v>
+      </c>
+      <c r="H101">
+        <v>184</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>150</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <v>2</v>
+      </c>
+      <c r="S101">
+        <v>1737</v>
+      </c>
+      <c r="T101">
+        <v>450</v>
+      </c>
+      <c r="U101">
+        <v>1</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>450</v>
+      </c>
+      <c r="X101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>3600</v>
+      </c>
+      <c r="B102">
+        <v>3600</v>
+      </c>
+      <c r="C102">
+        <v>3700</v>
+      </c>
+      <c r="D102">
+        <v>1308</v>
+      </c>
+      <c r="E102">
+        <v>7464</v>
+      </c>
+      <c r="F102">
+        <v>601</v>
+      </c>
+      <c r="G102">
+        <v>9923</v>
+      </c>
+      <c r="H102">
+        <v>175</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>150</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
+        <v>1672</v>
+      </c>
+      <c r="T102">
+        <v>450</v>
+      </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>450</v>
+      </c>
+      <c r="X102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>3700</v>
+      </c>
+      <c r="B103">
+        <v>3700</v>
+      </c>
+      <c r="C103">
+        <v>3800</v>
+      </c>
+      <c r="D103">
+        <v>1260</v>
+      </c>
+      <c r="E103">
+        <v>7222</v>
+      </c>
+      <c r="F103">
+        <v>575</v>
+      </c>
+      <c r="G103">
+        <v>9493</v>
+      </c>
+      <c r="H103">
+        <v>167</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>150</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
+        <v>1607</v>
+      </c>
+      <c r="T103">
+        <v>450</v>
+      </c>
+      <c r="U103">
+        <v>1</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>450</v>
+      </c>
+      <c r="X103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>3800</v>
+      </c>
+      <c r="B104">
+        <v>3800</v>
+      </c>
+      <c r="C104">
+        <v>3900</v>
+      </c>
+      <c r="D104">
+        <v>1213</v>
+      </c>
+      <c r="E104">
+        <v>6980</v>
+      </c>
+      <c r="F104">
+        <v>550</v>
+      </c>
+      <c r="G104">
+        <v>9063</v>
+      </c>
+      <c r="H104">
+        <v>158</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>150</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>1543</v>
+      </c>
+      <c r="T104">
+        <v>450</v>
+      </c>
+      <c r="U104">
+        <v>1</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>450</v>
+      </c>
+      <c r="X104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>3900</v>
+      </c>
+      <c r="B105">
+        <v>3900</v>
+      </c>
+      <c r="C105">
+        <v>4000</v>
+      </c>
+      <c r="D105">
+        <v>1166</v>
+      </c>
+      <c r="E105">
+        <v>6738</v>
+      </c>
+      <c r="F105">
+        <v>524</v>
+      </c>
+      <c r="G105">
+        <v>8632</v>
+      </c>
+      <c r="H105">
+        <v>149</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>150</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>1478</v>
+      </c>
+      <c r="T105">
+        <v>450</v>
+      </c>
+      <c r="U105">
+        <v>1</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>450</v>
+      </c>
+      <c r="X105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>4000</v>
+      </c>
+      <c r="B106">
+        <v>4000</v>
+      </c>
+      <c r="C106">
+        <v>4100</v>
+      </c>
+      <c r="D106">
+        <v>1119</v>
+      </c>
+      <c r="E106">
+        <v>6496</v>
+      </c>
+      <c r="F106">
+        <v>499</v>
+      </c>
+      <c r="G106">
+        <v>8202</v>
+      </c>
+      <c r="H106">
+        <v>140</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>150</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>1414</v>
+      </c>
+      <c r="T106">
+        <v>450</v>
+      </c>
+      <c r="U106">
+        <v>1</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>450</v>
+      </c>
+      <c r="X106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>4100</v>
+      </c>
+      <c r="B107">
+        <v>4100</v>
+      </c>
+      <c r="C107">
+        <v>4200</v>
+      </c>
+      <c r="D107">
+        <v>1072</v>
+      </c>
+      <c r="E107">
+        <v>6254</v>
+      </c>
+      <c r="F107">
+        <v>473</v>
+      </c>
+      <c r="G107">
+        <v>7772</v>
+      </c>
+      <c r="H107">
+        <v>132</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>150</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>1349</v>
+      </c>
+      <c r="T107">
+        <v>450</v>
+      </c>
+      <c r="U107">
+        <v>1</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>450</v>
+      </c>
+      <c r="X107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>4200</v>
+      </c>
+      <c r="B108">
+        <v>4200</v>
+      </c>
+      <c r="C108">
+        <v>4300</v>
+      </c>
+      <c r="D108">
+        <v>1025</v>
+      </c>
+      <c r="E108">
+        <v>6012</v>
+      </c>
+      <c r="F108">
+        <v>448</v>
+      </c>
+      <c r="G108">
+        <v>7341</v>
+      </c>
+      <c r="H108">
+        <v>123</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>150</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
+        <v>1284</v>
+      </c>
+      <c r="T108">
+        <v>450</v>
+      </c>
+      <c r="U108">
+        <v>1</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>450</v>
+      </c>
+      <c r="X108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>4300</v>
+      </c>
+      <c r="B109">
+        <v>4300</v>
+      </c>
+      <c r="C109">
+        <v>4400</v>
+      </c>
+      <c r="D109">
+        <v>978</v>
+      </c>
+      <c r="E109">
+        <v>5770</v>
+      </c>
+      <c r="F109">
+        <v>422</v>
+      </c>
+      <c r="G109">
+        <v>6911</v>
+      </c>
+      <c r="H109">
+        <v>114</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>150</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>1</v>
+      </c>
+      <c r="R109">
+        <v>2</v>
+      </c>
+      <c r="S109">
+        <v>1220</v>
+      </c>
+      <c r="T109">
+        <v>450</v>
+      </c>
+      <c r="U109">
+        <v>1</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>450</v>
+      </c>
+      <c r="X109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>4400</v>
+      </c>
+      <c r="B110">
+        <v>4400</v>
+      </c>
+      <c r="C110">
+        <v>4500</v>
+      </c>
+      <c r="D110">
+        <v>931</v>
+      </c>
+      <c r="E110">
+        <v>5528</v>
+      </c>
+      <c r="F110">
+        <v>397</v>
+      </c>
+      <c r="G110">
+        <v>6480</v>
+      </c>
+      <c r="H110">
+        <v>105</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>150</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <v>2</v>
+      </c>
+      <c r="S110">
+        <v>1155</v>
+      </c>
+      <c r="T110">
+        <v>450</v>
+      </c>
+      <c r="U110">
+        <v>1</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>450</v>
+      </c>
+      <c r="X110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>4500</v>
+      </c>
+      <c r="B111">
+        <v>4500</v>
+      </c>
+      <c r="C111">
+        <v>4600</v>
+      </c>
+      <c r="D111">
+        <v>884</v>
+      </c>
+      <c r="E111">
+        <v>5286</v>
+      </c>
+      <c r="F111">
+        <v>371</v>
+      </c>
+      <c r="G111">
+        <v>6050</v>
+      </c>
+      <c r="H111">
+        <v>97</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>150</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>1091</v>
+      </c>
+      <c r="T111">
+        <v>450</v>
+      </c>
+      <c r="U111">
+        <v>1</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>450</v>
+      </c>
+      <c r="X111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>4600</v>
+      </c>
+      <c r="B112">
+        <v>4600</v>
+      </c>
+      <c r="C112">
+        <v>4700</v>
+      </c>
+      <c r="D112">
+        <v>837</v>
+      </c>
+      <c r="E112">
+        <v>5045</v>
+      </c>
+      <c r="F112">
+        <v>346</v>
+      </c>
+      <c r="G112">
+        <v>5620</v>
+      </c>
+      <c r="H112">
+        <v>88</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>150</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>1</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>1026</v>
+      </c>
+      <c r="T112">
+        <v>450</v>
+      </c>
+      <c r="U112">
+        <v>1</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>450</v>
+      </c>
+      <c r="X112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>4700</v>
+      </c>
+      <c r="B113">
+        <v>4700</v>
+      </c>
+      <c r="C113">
+        <v>4800</v>
+      </c>
+      <c r="D113">
+        <v>789</v>
+      </c>
+      <c r="E113">
+        <v>4803</v>
+      </c>
+      <c r="F113">
+        <v>320</v>
+      </c>
+      <c r="G113">
+        <v>5189</v>
+      </c>
+      <c r="H113">
+        <v>79</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>150</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
+        <v>961</v>
+      </c>
+      <c r="T113">
+        <v>450</v>
+      </c>
+      <c r="U113">
+        <v>1</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>450</v>
+      </c>
+      <c r="X113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>4800</v>
+      </c>
+      <c r="B114">
+        <v>4800</v>
+      </c>
+      <c r="C114">
+        <v>4900</v>
+      </c>
+      <c r="D114">
+        <v>742</v>
+      </c>
+      <c r="E114">
+        <v>4561</v>
+      </c>
+      <c r="F114">
+        <v>295</v>
+      </c>
+      <c r="G114">
+        <v>4759</v>
+      </c>
+      <c r="H114">
+        <v>70</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>150</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>1</v>
+      </c>
+      <c r="R114">
+        <v>2</v>
+      </c>
+      <c r="S114">
+        <v>897</v>
+      </c>
+      <c r="T114">
+        <v>450</v>
+      </c>
+      <c r="U114">
+        <v>1</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>450</v>
+      </c>
+      <c r="X114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>4900</v>
+      </c>
+      <c r="B115">
+        <v>4900</v>
+      </c>
+      <c r="C115">
+        <v>5000</v>
+      </c>
+      <c r="D115">
+        <v>695</v>
+      </c>
+      <c r="E115">
+        <v>4319</v>
+      </c>
+      <c r="F115">
+        <v>269</v>
+      </c>
+      <c r="G115">
+        <v>4329</v>
+      </c>
+      <c r="H115">
+        <v>62</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>150</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>1</v>
+      </c>
+      <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
+        <v>832</v>
+      </c>
+      <c r="T115">
+        <v>450</v>
+      </c>
+      <c r="U115">
+        <v>1</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>450</v>
+      </c>
+      <c r="X115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>5000</v>
+      </c>
+      <c r="B116">
+        <v>5000</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D116">
+        <v>648</v>
+      </c>
+      <c r="E116">
+        <v>4077</v>
+      </c>
+      <c r="F116">
+        <v>244</v>
+      </c>
+      <c r="G116">
+        <v>3898</v>
+      </c>
+      <c r="H116">
+        <v>53</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>150</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+      <c r="R116">
+        <v>2</v>
+      </c>
+      <c r="S116">
+        <v>768</v>
+      </c>
+      <c r="T116">
+        <v>450</v>
+      </c>
+      <c r="U116">
+        <v>1</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>450</v>
+      </c>
+      <c r="X116">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/arena.竞技场.xlsx
+++ b/Excel/arena.竞技场.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0E8013-0DD7-48A4-AE84-4085324BF9BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9261091-DDF7-43D9-9DB2-BE3ECA16AFE8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="3855" windowHeight="7020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="3855" windowHeight="7020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2419,7 +2419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5959A67B-4CA0-4166-B229-9066D09FC1B9}">
   <dimension ref="A1:Z116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
